--- a/biology/Mycologie/Chalciporus_rubinus/Chalciporus_rubinus.xlsx
+++ b/biology/Mycologie/Chalciporus_rubinus/Chalciporus_rubinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet rubis
-Chalciporus rubinus, le Bolet rubis, est une espèce rare de champignon (Fungi) basidiomycète du genre Chalciporus dans la famille des Boletaceae. C'est une espèce menacée[1]. Il est caractérisé par son pied ponctué de carmin et sa saveur parfois amère.
+Chalciporus rubinus, le Bolet rubis, est une espèce rare de champignon (Fungi) basidiomycète du genre Chalciporus dans la famille des Boletaceae. C'est une espèce menacée. Il est caractérisé par son pied ponctué de carmin et sa saveur parfois amère.
 </t>
         </is>
       </c>
@@ -512,12 +524,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Chalciporus rubinus (W.G. Sm.) Singer, 1973[2].
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus rubinus W.G. Sm., 1868[2].
-Synonymes
-Chalciporus rubinus a pour synonymes[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Chalciporus rubinus (W.G. Sm.) Singer, 1973.
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus rubinus W.G. Sm., 1868.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chalciporus_rubinus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chalciporus_rubinus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Chalciporus rubinus a pour synonymes :
 Boletus rubinus W.G. Sm., 1868
 Rubinoboletus rubinus (W.G. Sm.) Pilát &amp; Dermek, 1969
 Suillus rubinus (W.G. Sm.) Kuntze, 1898
@@ -525,39 +574,76 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Chalciporus_rubinus</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Chalciporus_rubinus</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques morphologiques de Chalciporus rubinus, le Bolet rubis, sont les suivantes :
-Son chapeau est brun clair, fauve brunâtre marbré de brun vineux[3].
-L'hyménophore présente des pores amples, rouge framboise vif à rouge carminé, subimmuables[3], formant un pseudo-réseau en haut du pied[4].
-Son stipe est trapu, ponctué de rouge carmin vif sur fond jaune. Son mycélium basal est nettement jaune[3].
-La chair est blanche dans le chapeau, jaune dans le stipe[3]. Sa saveur est douce ou amère/piquante[4]. Son odeur n'est pas distinctive.
-Caractéristiques microscopiques
-Ses spores mesurent 6-8 x 4-5 µm[3].
+Son chapeau est brun clair, fauve brunâtre marbré de brun vineux.
+L'hyménophore présente des pores amples, rouge framboise vif à rouge carminé, subimmuables, formant un pseudo-réseau en haut du pied.
+Son stipe est trapu, ponctué de rouge carmin vif sur fond jaune. Son mycélium basal est nettement jaune.
+La chair est blanche dans le chapeau, jaune dans le stipe. Sa saveur est douce ou amère/piquante. Son odeur n'est pas distinctive.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chalciporus_rubinus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chalciporus_rubinus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 6-8 x 4-5 µm.
 </t>
         </is>
       </c>
